--- a/documentacao/planilhas/alertas.xlsx
+++ b/documentacao/planilhas/alertas.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\totem-monitoring\documentacao\planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Desktop\totem-monitoring\documentacao\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBF1B14-909E-4815-9392-AAEC9D2251DD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Alerta</t>
   </si>
   <si>
-    <t>Quanto? (%)</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -41,9 +39,6 @@
     <t>Disco Rígido</t>
   </si>
   <si>
-    <t>Média de todos</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
@@ -62,13 +57,22 @@
     <t>"Sua memória e disco rigido estão ficando sobrecarregados, verifique os componentes"</t>
   </si>
   <si>
-    <t>"Sobrecarga do sistema! Verifique os componetes do seu sistema."</t>
+    <t>Critico</t>
+  </si>
+  <si>
+    <t>Atenção</t>
+  </si>
+  <si>
+    <t>UP/Down</t>
+  </si>
+  <si>
+    <t>"O totem esta com status Down"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -109,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -118,38 +122,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -160,133 +136,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -568,84 +441,101 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B2" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.94</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.87</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
